--- a/data/outputs/management_elsevier/32.xlsx
+++ b/data/outputs/management_elsevier/32.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS10"/>
+  <dimension ref="A1:BU10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -933,6 +943,12 @@
           <t>2-s2.0-84949683484</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>2944</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1138,6 +1154,12 @@
           <t>2-s2.0-84949673895</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>4585</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1351,6 +1373,12 @@
           <t>2-s2.0-84949729573</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>3730</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1552,6 +1580,12 @@
           <t>2-s2.0-84949725575</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>2707</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1763,6 +1797,12 @@
           <t>2-s2.0-84949726549</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>3153</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1974,6 +2014,12 @@
           <t>2-s2.0-84949659142</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>9715</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2181,6 +2227,12 @@
           <t>2-s2.0-84949731177</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>5495</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2392,6 +2444,12 @@
           <t>2-s2.0-84949677733</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>5854</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2599,6 +2657,12 @@
           <t>2-s2.0-84949672253</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>22484</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
